--- a/Assignment3RubricScore.xlsx
+++ b/Assignment3RubricScore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s516583\Google Drive\assignments\TAWork\StudentAssignmentRepositoriesMachineLearning\Programming Assignment 3 Machine Learning-02-11-2019-03-23-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s516583\Google Drive\assignments\MachineLearning\MyAssignments\GitHubRepoForTurningIn\AlleeMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>points earned</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>part 10:</t>
+  </si>
+  <si>
+    <t>did not link a particular dataset. Just linked kaggle</t>
+  </si>
+  <si>
+    <t>basicly did a second copy of the assignment</t>
   </si>
 </sst>
 </file>
@@ -400,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +417,7 @@
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -419,89 +425,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
       <c r="D8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
       <c r="D9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
       <c r="D10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
       <c r="D11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
       <c r="D12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
       <c r="D13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
       <c r="D14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
       <c r="D15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -511,6 +553,9 @@
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
       <c r="D17">
         <v>5</v>
       </c>
@@ -519,8 +564,14 @@
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
       <c r="D18">
         <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -529,7 +580,7 @@
       </c>
       <c r="C19">
         <f>SUM(C12+C13+C14+C15+C16+C11+C6+C7+C8+C10+C9+C17+C18)</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <f>SUM(D6+D7+D13+D15+D14+D16+D8+D9+D10+D11+D12+D17)</f>
@@ -537,7 +588,7 @@
       </c>
       <c r="E19">
         <f>C19/D19</f>
-        <v>0</v>
+        <v>1.0375000000000001</v>
       </c>
     </row>
   </sheetData>
